--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BFFBDB-88A6-485E-9760-A81713187BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257C9228-E86E-4AFF-B358-6756975657E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,41 +790,41 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1143,10 +1143,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="23" t="s">
         <v>77</v>
       </c>
@@ -1156,8 +1156,8 @@
       <c r="A2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1432,18 +1432,18 @@
     </row>
     <row r="8" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="42"/>
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:20" s="10" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1590,15 +1590,15 @@
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="43"/>
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="2:14" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
@@ -1611,16 +1611,16 @@
       <c r="F18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
@@ -1632,14 +1632,14 @@
       <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D20" s="9" t="s">
@@ -1651,14 +1651,14 @@
       <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D21" s="22" t="s">
@@ -1670,16 +1670,16 @@
       <c r="F21" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D22" s="22" t="s">
@@ -1691,14 +1691,14 @@
       <c r="F22" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="22" t="s">
@@ -1710,16 +1710,16 @@
       <c r="F23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
     </row>
     <row r="24" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D24" s="22" t="s">
@@ -1731,14 +1731,14 @@
       <c r="F24" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
     </row>
     <row r="25" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="22" t="s">
@@ -1750,16 +1750,16 @@
       <c r="F25" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="22" t="s">
@@ -1771,14 +1771,14 @@
       <c r="F26" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
     </row>
     <row r="27" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="22" t="s">
@@ -1790,16 +1790,16 @@
       <c r="F27" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D28" s="22" t="s">
@@ -1811,40 +1811,40 @@
       <c r="F28" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
     </row>
     <row r="31" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="19" t="s">
@@ -1873,8 +1873,8 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="1">
@@ -2173,10 +2173,10 @@
       </c>
     </row>
     <row r="43" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="33"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="19" t="s">
@@ -2205,8 +2205,8 @@
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="1">
@@ -2505,10 +2505,10 @@
       </c>
     </row>
     <row r="56" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="33"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="19" t="s">
@@ -2519,8 +2519,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="18" t="s">
         <v>61</v>
       </c>
@@ -2643,116 +2643,116 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="42" t="s">
+      <c r="C68" s="38"/>
+      <c r="D68" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="32"/>
-      <c r="F68" s="39" t="s">
+      <c r="F68" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G68" s="39" t="s">
+      <c r="G68" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="H68" s="39"/>
+      <c r="H68" s="40"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="42"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="32"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
     </row>
     <row r="70" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
     </row>
     <row r="71" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="40"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="32"/>
       <c r="D71" s="32"/>
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
     </row>
     <row r="72" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="40"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
     </row>
     <row r="73" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="40"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="32"/>
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="40"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
     </row>
     <row r="75" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="40"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="32"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="40"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
     </row>
     <row r="77" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="40"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="32"/>
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="40"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="40"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="32"/>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
@@ -2761,25 +2761,44 @@
       <c r="H79" s="32"/>
     </row>
     <row r="80" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="40"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="40"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="32"/>
       <c r="D81" s="32"/>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="G68:H69"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="G18:N18"/>
     <mergeCell ref="B70:B81"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="G81:H81"/>
@@ -2796,25 +2815,6 @@
     <mergeCell ref="G78:H78"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="G68:H69"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83035FD5-9C60-459A-B656-C0F30E2C5082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB63A77B-5812-48FA-ABC0-C02C1E5E9B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,38 +765,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1115,10 +1115,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
@@ -1128,8 +1128,8 @@
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1402,18 +1402,18 @@
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="29"/>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1761,15 +1761,15 @@
       <c r="C22" s="24"/>
     </row>
     <row r="23" spans="2:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="30"/>
       <c r="N23" s="18"/>
     </row>
     <row r="24" spans="2:14" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
@@ -1782,16 +1782,16 @@
       <c r="F25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D26" s="9" t="s">
@@ -1803,33 +1803,33 @@
       <c r="F26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="26">
         <v>10</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -1841,14 +1841,14 @@
       <c r="F28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D29" s="9" t="s">
@@ -1860,16 +1860,16 @@
       <c r="F29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D30" s="9" t="s">
@@ -1881,14 +1881,14 @@
       <c r="F30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D31" s="9" t="s">
@@ -1900,16 +1900,16 @@
       <c r="F31" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D32" s="9" t="s">
@@ -1921,14 +1921,14 @@
       <c r="F32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
@@ -1940,16 +1940,16 @@
       <c r="F33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
@@ -1961,14 +1961,14 @@
       <c r="F34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
@@ -1980,16 +1980,16 @@
       <c r="F35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
@@ -2001,33 +2001,33 @@
       <c r="F36" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="26">
         <v>10</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N38" s="9"/>
@@ -2036,10 +2036,10 @@
       <c r="N39" s="9"/>
     </row>
     <row r="40" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="30"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="20" t="s">
@@ -2068,8 +2068,8 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="9">
@@ -2368,10 +2368,10 @@
       </c>
     </row>
     <row r="52" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="30"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20" t="s">
@@ -2400,8 +2400,8 @@
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="9">
@@ -2700,10 +2700,10 @@
       </c>
     </row>
     <row r="65" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="30"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="20" t="s">
@@ -2714,8 +2714,8 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="19" t="s">
         <v>58</v>
       </c>
@@ -2838,96 +2838,96 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="30"/>
+      <c r="C77" s="33"/>
       <c r="D77" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="19"/>
-      <c r="F77" s="29" t="s">
+      <c r="F77" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="29" t="s">
+      <c r="G77" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H77" s="29"/>
+      <c r="H77" s="34"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="32"/>
       <c r="E78" s="19"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
     </row>
     <row r="80" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="31"/>
+      <c r="B80" s="35"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="31"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
+      <c r="B81" s="35"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
     </row>
     <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="31"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="31"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
+      <c r="B83" s="35"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="31"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="31"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
+      <c r="B85" s="35"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="31"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="31"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
+      <c r="B87" s="35"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="31"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
@@ -2936,29 +2936,33 @@
       <c r="H88" s="19"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="31"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
+      <c r="B89" s="35"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="31"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G77:H78"/>
     <mergeCell ref="G89:H89"/>
     <mergeCell ref="G90:H90"/>
     <mergeCell ref="D77:D78"/>
@@ -2974,18 +2978,14 @@
     <mergeCell ref="B65:C66"/>
     <mergeCell ref="B52:C53"/>
     <mergeCell ref="B79:B90"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G27:N27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB63A77B-5812-48FA-ABC0-C02C1E5E9B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0C4C58-44DE-4066-B413-B4843FE05433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4130" yWindow="2830" windowWidth="12200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="124">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,37 +507,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成兔兔伯爵，经过短暂时间后爆炸，对范围内敌人造成高额爆炸伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向右发射音符，攻击遇到的第一个敌人，攻击初动2.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产中星辉以部署角色，技能初动5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>向右发射音符，攻击遇到的第一个敌人，</t>
+      <t>安柏</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFC00000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>攻击初动2.5s</t>
+      <t>（不会阻挡敌人）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>生产中星辉以部署角色，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>技能初动5s</t>
-    </r>
+    <t>3*3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +549,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +632,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -688,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -766,6 +787,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1078,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1115,10 +1142,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="28"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
@@ -1128,8 +1155,8 @@
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1202,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E4" s="9">
         <v>100</v>
@@ -1262,7 +1289,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E5" s="9">
         <v>50</v>
@@ -1401,151 +1428,149 @@
       </c>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="26">
+        <v>150</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="26">
+        <v>600</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="26">
+        <v>1</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="26">
+        <v>20</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="C9" s="31"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <v>60</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <v>15</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J12" s="7">
         <v>1.5</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="16">
-        <v>120</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="16">
-        <v>20</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="O12" s="15" t="s">
         <v>26</v>
@@ -1554,92 +1579,92 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="15">
-        <v>100</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="15">
+        <v>102</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="16">
+        <v>120</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="16">
         <v>20</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>46</v>
+      <c r="J13" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>68</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="15">
         <v>100</v>
       </c>
-      <c r="F14" s="16">
-        <v>120</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="15">
+        <v>20</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="16">
-        <v>20</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>48</v>
+      <c r="N14" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>26</v>
@@ -1648,65 +1673,65 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>70</v>
+    <row r="15" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="B15" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="15">
+        <v>99</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="16">
+        <v>120</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="16">
         <v>20</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>46</v>
+      <c r="J15" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>110</v>
@@ -1721,19 +1746,19 @@
         <v>43</v>
       </c>
       <c r="J16" s="15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="15" t="s">
         <v>26</v>
@@ -1742,389 +1767,406 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="24"/>
-    </row>
-    <row r="18" spans="2:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="15">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="15">
+        <v>20</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="24"/>
     </row>
-    <row r="19" spans="2:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="24"/>
     </row>
-    <row r="20" spans="2:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="2:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="2:14" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="24"/>
     </row>
-    <row r="23" spans="2:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
+    <row r="23" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="24"/>
+    </row>
+    <row r="24" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="2:14" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="C24" s="32"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D25" s="9" t="s">
+    <row r="25" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G26" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D26" s="9" t="s">
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D27" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>8</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D27" s="26" t="s">
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D28" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E28" s="9">
         <v>10</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D28" s="9" t="s">
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D29" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>25</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D29" s="9" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>16</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G30" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D30" s="9" t="s">
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>22</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F31" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D31" s="9" t="s">
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D32" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>80</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G32" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D32" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="9">
-        <v>8</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E33" s="9">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="9">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
+        <v>75</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="9">
-        <v>-45</v>
+        <v>8</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="9">
+        <v>-45</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>2</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D37" s="26" t="s">
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D38" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E38" s="9">
         <v>10</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F38" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N38" s="9"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B40" s="33" t="s">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="2:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="B41" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="9">
-        <v>1500</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>54</v>
+      <c r="F41" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="19">
+      <c r="F42" s="9">
+        <v>1500</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="9">
         <v>1000</v>
       </c>
-      <c r="G42" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="19">
-        <v>600</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="19">
-        <v>1</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" s="19">
-        <v>3</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>37</v>
+      <c r="I42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
@@ -2132,29 +2174,29 @@
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="9">
-        <v>700</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="9">
-        <v>300</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L43" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>55</v>
+      <c r="F43" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="19">
+        <v>600</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" s="19">
+        <v>1</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="19">
+        <v>3</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
@@ -2162,29 +2204,29 @@
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="19">
-        <v>600</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="19">
-        <v>200</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="19">
-        <v>3</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="19">
-        <v>4</v>
-      </c>
-      <c r="M44" s="19" t="s">
-        <v>9</v>
+      <c r="F44" s="9">
+        <v>700</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="9">
+        <v>300</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
@@ -2192,29 +2234,29 @@
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="9">
-        <v>400</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="9">
-        <v>80</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="9">
-        <v>5</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="9">
-        <v>8</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>56</v>
+      <c r="F45" s="19">
+        <v>600</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="19">
+        <v>200</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="19">
+        <v>3</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="19">
+        <v>4</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
@@ -2222,29 +2264,29 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="19">
-        <v>300</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="19">
-        <v>60</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J46" s="19">
-        <v>6</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" s="19">
-        <v>10</v>
-      </c>
-      <c r="M46" s="19" t="s">
-        <v>43</v>
+      <c r="F46" s="9">
+        <v>400</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="9">
+        <v>80</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="9">
+        <v>5</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="9">
+        <v>8</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
@@ -2252,29 +2294,29 @@
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="9">
-        <v>150</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="9">
-        <v>25</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47" s="9">
-        <v>8</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L47" s="9">
-        <v>15</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>39</v>
+      <c r="F47" s="19">
+        <v>300</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="19">
+        <v>60</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="19">
+        <v>6</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="19">
+        <v>10</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
@@ -2282,29 +2324,29 @@
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="19">
-        <v>100</v>
-      </c>
-      <c r="G48" s="19" t="s">
+      <c r="F48" s="9">
+        <v>150</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="9">
+        <v>25</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" s="9">
         <v>8</v>
       </c>
-      <c r="H48" s="19">
+      <c r="K48" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="9">
         <v>15</v>
       </c>
-      <c r="I48" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="19">
-        <v>10</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="19">
-        <v>20</v>
-      </c>
-      <c r="M48" s="19" t="s">
-        <v>8</v>
+      <c r="M48" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
@@ -2312,29 +2354,29 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="9">
-        <v>50</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="9">
+      <c r="F49" s="19">
+        <v>100</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="19">
+        <v>15</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="19">
         <v>10</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="9">
-        <v>15</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L49" s="9">
-        <v>30</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>29</v>
+      <c r="K49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="19">
+        <v>20</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
@@ -2342,121 +2384,121 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="19">
+      <c r="F50" s="9">
+        <v>50</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="9">
+        <v>10</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="9">
+        <v>15</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="9">
         <v>30</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="M50" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19">
+        <v>30</v>
+      </c>
+      <c r="G51" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H51" s="19">
         <v>0</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I51" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J51" s="19">
         <v>20</v>
       </c>
-      <c r="K50" s="19" t="s">
+      <c r="K51" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L51" s="19">
         <v>35</v>
       </c>
-      <c r="M50" s="19" t="s">
+      <c r="M51" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B52" s="33" t="s">
+    <row r="53" spans="2:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="B53" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J52" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L52" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M52" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="9">
-        <v>1500</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="9">
-        <v>500</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J53" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L53" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>54</v>
+      <c r="F53" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="19">
-        <v>1000</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="19">
-        <v>300</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L54" s="19">
-        <v>2</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>37</v>
+      <c r="F54" s="9">
+        <v>1500</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="9">
+        <v>500</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
@@ -2464,29 +2506,29 @@
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="9">
-        <v>600</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" s="9">
-        <v>100</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J55" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L55" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>55</v>
+      <c r="F55" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="19">
+        <v>300</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L55" s="19">
+        <v>2</v>
+      </c>
+      <c r="M55" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
@@ -2494,29 +2536,29 @@
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
-      <c r="F56" s="19">
-        <v>500</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="19">
-        <v>50</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J56" s="19">
-        <v>1</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56" s="19">
-        <v>3</v>
-      </c>
-      <c r="M56" s="19" t="s">
-        <v>9</v>
+      <c r="F56" s="9">
+        <v>600</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="9">
+        <v>100</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -2524,29 +2566,29 @@
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="9">
-        <v>300</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" s="9">
-        <v>30</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L57" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>56</v>
+      <c r="F57" s="19">
+        <v>500</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="19">
+        <v>50</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" s="19">
+        <v>1</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" s="19">
+        <v>3</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
@@ -2554,29 +2596,29 @@
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="19">
-        <v>250</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="19">
-        <v>20</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J58" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L58" s="19">
-        <v>4</v>
-      </c>
-      <c r="M58" s="19" t="s">
-        <v>43</v>
+      <c r="F58" s="9">
+        <v>300</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="9">
+        <v>30</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L58" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
@@ -2584,29 +2626,29 @@
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="9">
-        <v>150</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H59" s="9">
-        <v>15</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J59" s="9">
-        <v>2</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L59" s="9">
-        <v>5</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>39</v>
+      <c r="F59" s="19">
+        <v>250</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="19">
+        <v>20</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J59" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L59" s="19">
+        <v>4</v>
+      </c>
+      <c r="M59" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
@@ -2614,29 +2656,29 @@
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
-      <c r="F60" s="19">
-        <v>120</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="19">
-        <v>10</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="19">
-        <v>3</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="19">
-        <v>6</v>
-      </c>
-      <c r="M60" s="19" t="s">
-        <v>8</v>
+      <c r="F60" s="9">
+        <v>150</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="9">
+        <v>15</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="9">
+        <v>2</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" s="9">
+        <v>5</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
@@ -2644,29 +2686,29 @@
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="9">
-        <v>90</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="9">
-        <v>5</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" s="9">
-        <v>4</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L61" s="9">
+      <c r="F61" s="19">
+        <v>120</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M61" s="9" t="s">
-        <v>29</v>
+      <c r="H61" s="19">
+        <v>10</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="19">
+        <v>3</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="19">
+        <v>6</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -2674,83 +2716,101 @@
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="19">
+      <c r="F62" s="9">
+        <v>90</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="9">
+        <v>5</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="9">
+        <v>4</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="9">
+        <v>8</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19">
         <v>60</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G63" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H63" s="19">
         <v>0</v>
       </c>
-      <c r="I62" s="19" t="s">
+      <c r="I63" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J62" s="19">
+      <c r="J63" s="19">
         <v>5</v>
       </c>
-      <c r="K62" s="19" t="s">
+      <c r="K63" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L62" s="19">
+      <c r="L63" s="19">
         <v>10</v>
       </c>
-      <c r="M62" s="19" t="s">
+      <c r="M63" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="33" t="s">
+    <row r="66" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20" t="s">
+      <c r="C66" s="35"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G66" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="19" t="s">
+    <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19" t="s">
+      <c r="E67" s="19"/>
+      <c r="F67" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G67" s="19">
         <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="9">
-        <v>480</v>
-      </c>
-      <c r="G67" s="9">
-        <v>9</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+      <c r="D68" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="E68" s="19"/>
-      <c r="F68" s="19">
-        <v>350</v>
-      </c>
-      <c r="G68" s="19">
-        <v>8</v>
+      <c r="F68" s="9">
+        <v>480</v>
+      </c>
+      <c r="G68" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
@@ -2758,11 +2818,11 @@
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
-      <c r="F69" s="9">
-        <v>250</v>
-      </c>
-      <c r="G69" s="9">
-        <v>7</v>
+      <c r="F69" s="19">
+        <v>350</v>
+      </c>
+      <c r="G69" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
@@ -2771,10 +2831,10 @@
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="9">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G70" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
@@ -2782,11 +2842,11 @@
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="19">
-        <v>120</v>
-      </c>
-      <c r="G71" s="19">
-        <v>5</v>
+      <c r="F71" s="9">
+        <v>180</v>
+      </c>
+      <c r="G71" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
@@ -2794,11 +2854,11 @@
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
-      <c r="F72" s="9">
-        <v>80</v>
-      </c>
-      <c r="G72" s="9">
-        <v>4</v>
+      <c r="F72" s="19">
+        <v>120</v>
+      </c>
+      <c r="G72" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
@@ -2806,11 +2866,11 @@
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="19">
-        <v>50</v>
-      </c>
-      <c r="G73" s="19">
-        <v>3</v>
+      <c r="F73" s="9">
+        <v>80</v>
+      </c>
+      <c r="G73" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
@@ -2819,10 +2879,10 @@
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G74" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
@@ -2830,162 +2890,174 @@
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="9">
+      <c r="F75" s="19">
+        <v>25</v>
+      </c>
+      <c r="G75" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="9">
         <v>10</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G76" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="33" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="32" t="s">
+      <c r="C78" s="35"/>
+      <c r="D78" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="34" t="s">
+      <c r="E78" s="19"/>
+      <c r="F78" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="34" t="s">
+      <c r="G78" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H77" s="34"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-    </row>
-    <row r="79" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="35" t="s">
+      <c r="H78" s="36"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+    </row>
+    <row r="80" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-    </row>
-    <row r="80" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="35"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="35"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
     </row>
     <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="35"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
+      <c r="B82" s="37"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="35"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="35"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
+      <c r="B84" s="37"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="35"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="35"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
+      <c r="B86" s="37"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="35"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="35"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
+      <c r="B88" s="37"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="35"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="35"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+    </row>
+    <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="37"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" s="37"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G30:N30"/>
     <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G88:H88"/>
     <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G79:H79"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="G81:H81"/>
     <mergeCell ref="G82:H82"/>
     <mergeCell ref="G83:H83"/>
     <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G78:H79"/>
     <mergeCell ref="G90:H90"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="B77:C78"/>
-    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="B78:C79"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="G37:N37"/>
     <mergeCell ref="G36:N36"/>
     <mergeCell ref="G35:N35"/>
     <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="B79:B90"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B80:B91"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B24:C25"/>
     <mergeCell ref="G26:N26"/>
     <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G27:N27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0C4C58-44DE-4066-B413-B4843FE05433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979D3FCE-0AB3-4D8C-B09B-84A2E47F48E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4130" yWindow="2830" windowWidth="12200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="130">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>植物数值评级表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,6 +516,30 @@
   </si>
   <si>
     <t>生产中星辉以部署角色，技能初动5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色数值评级表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值1000→1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值1100→1250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再部署20→18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再部署18→15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,7 +550,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -541,7 +560,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3*3</t>
+    <t>费用150→135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用135→120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,23 +655,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -709,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -792,12 +798,27 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,24 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1142,21 +1145,21 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+        <v>66</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1191,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>7</v>
@@ -1203,13 +1206,13 @@
         <v>11</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>18</v>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1229,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="9">
         <v>100</v>
@@ -1272,7 +1275,7 @@
         <v>51</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>52</v>
@@ -1280,7 +1283,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
@@ -1289,7 +1292,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="9">
         <v>50</v>
@@ -1326,21 +1329,21 @@
         <v>49</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
@@ -1382,10 +1385,25 @@
         <v>16</v>
       </c>
       <c r="O6" s="10"/>
+      <c r="P6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="9">
         <v>4</v>
@@ -1427,65 +1445,89 @@
         <v>40</v>
       </c>
       <c r="O7" s="10"/>
+      <c r="P7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="8" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="26">
-        <v>5</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="E8" s="9">
         <v>150</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="G8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="9">
         <v>600</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="9">
         <v>1</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="9">
         <v>20</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="28" t="s">
-        <v>123</v>
+      <c r="N8" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="O8" s="27"/>
+      <c r="Q8" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="9" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="36"/>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+        <v>66</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1529,18 +1571,18 @@
         <v>13</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>42</v>
@@ -1576,21 +1618,21 @@
         <v>26</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="15">
         <v>2</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="F13" s="16">
         <v>120</v>
@@ -1611,30 +1653,30 @@
         <v>43</v>
       </c>
       <c r="L13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="15">
         <v>3</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>27</v>
@@ -1670,21 +1712,21 @@
         <v>26</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="15">
         <v>4</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="F15" s="16">
         <v>120</v>
@@ -1702,10 +1744,10 @@
         <v>0.8</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>43</v>
@@ -1717,27 +1759,27 @@
         <v>26</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="15">
         <v>5</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="F16" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>110</v>
-      </c>
       <c r="G16" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="15">
         <v>20</v>
@@ -1764,27 +1806,27 @@
         <v>26</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="15">
         <v>6</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>114</v>
-      </c>
       <c r="F17" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="15">
         <v>20</v>
@@ -1796,10 +1838,10 @@
         <v>0.8</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>43</v>
@@ -1811,7 +1853,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1833,15 +1875,15 @@
       <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="37"/>
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -1854,20 +1896,20 @@
       <c r="F26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="G26" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D27" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="9">
         <v>8</v>
@@ -1875,37 +1917,37 @@
       <c r="F27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="9">
         <v>10</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D29" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="9">
         <v>25</v>
@@ -1913,193 +1955,193 @@
       <c r="F29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D30" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="9">
         <v>16</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+        <v>74</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D31" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="9">
         <v>22</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D32" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="9">
         <v>80</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+        <v>74</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="9">
         <v>8</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" s="9">
         <v>-9</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+        <v>74</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="9">
         <v>8</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="9">
         <v>-45</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+        <v>74</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9">
         <v>2</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="9">
         <v>10</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N39" s="9"/>
@@ -2108,10 +2150,10 @@
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B41" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="35"/>
+      <c r="B41" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="33"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20" t="s">
@@ -2140,33 +2182,33 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="9">
         <v>1500</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H42" s="9">
         <v>1000</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42" s="9">
         <v>0.5</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L42" s="9">
         <v>0.5</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
@@ -2208,25 +2250,25 @@
         <v>700</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H44" s="9">
         <v>300</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J44" s="9">
         <v>2.5</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L44" s="9">
         <v>3.5</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
@@ -2268,25 +2310,25 @@
         <v>400</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H46" s="9">
         <v>80</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J46" s="9">
         <v>5</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L46" s="9">
         <v>8</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
@@ -2440,10 +2482,10 @@
       </c>
     </row>
     <row r="53" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B53" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="B53" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="33"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20" t="s">
@@ -2472,33 +2514,33 @@
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="9">
         <v>1500</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H54" s="9">
         <v>500</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J54" s="9">
         <v>0.3</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L54" s="9">
         <v>1.5</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
@@ -2540,25 +2582,25 @@
         <v>600</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H56" s="9">
         <v>100</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J56" s="9">
         <v>0.8</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L56" s="9">
         <v>2.5</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -2600,25 +2642,25 @@
         <v>300</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H58" s="9">
         <v>30</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J58" s="9">
         <v>1.25</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L58" s="9">
         <v>3.5</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
@@ -2772,24 +2814,24 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="35"/>
+      <c r="B66" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="33"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19" t="s">
@@ -2803,7 +2845,7 @@
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="9">
@@ -2910,96 +2952,96 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="33"/>
+      <c r="D78" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" s="31"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+    </row>
+    <row r="80" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="H78" s="36"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-    </row>
-    <row r="80" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="37"/>
+      <c r="B81" s="34"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
     </row>
     <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="37"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
+      <c r="B82" s="34"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="37"/>
+      <c r="B83" s="34"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="37"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
+      <c r="B84" s="34"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="37"/>
+      <c r="B85" s="34"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="37"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
+      <c r="B86" s="34"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="37"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="37"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
+      <c r="B88" s="34"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="37"/>
+      <c r="B89" s="34"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -3008,33 +3050,29 @@
       <c r="H89" s="19"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="37"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
+      <c r="B90" s="34"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="37"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G78:H79"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G28:N28"/>
     <mergeCell ref="G90:H90"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="D78:D79"/>
@@ -3050,14 +3088,18 @@
     <mergeCell ref="B66:C67"/>
     <mergeCell ref="B53:C54"/>
     <mergeCell ref="B80:B91"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G78:H79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979D3FCE-0AB3-4D8C-B09B-84A2E47F48E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A8CF1-4A98-4787-9788-CA4B5DF013FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="131">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,10 @@
   </si>
   <si>
     <t>费用135→120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图层顺序一览表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,32 +805,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T91"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1145,10 +1149,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="2" t="s">
         <v>72</v>
       </c>
@@ -1158,8 +1162,8 @@
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1516,18 +1520,18 @@
       </c>
     </row>
     <row r="9" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="30"/>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1875,15 +1879,15 @@
       <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="31"/>
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2150,10 +2154,10 @@
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20" t="s">
@@ -2182,8 +2186,8 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="9">
@@ -2482,10 +2486,10 @@
       </c>
     </row>
     <row r="53" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="33"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20" t="s">
@@ -2514,8 +2518,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="9">
@@ -2814,10 +2818,10 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="33"/>
+      <c r="C66" s="34"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20" t="s">
@@ -2828,8 +2832,8 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="19" t="s">
         <v>57</v>
       </c>
@@ -2952,96 +2956,96 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="32" t="s">
+      <c r="C78" s="34"/>
+      <c r="D78" s="33" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="19"/>
-      <c r="F78" s="31" t="s">
+      <c r="F78" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="G78" s="31" t="s">
+      <c r="G78" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H78" s="31"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="32"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="19"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="36" t="s">
         <v>83</v>
       </c>
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="34"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
     </row>
     <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="34"/>
+      <c r="B82" s="36"/>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="34"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="34"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
+      <c r="B84" s="36"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="34"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="34"/>
+      <c r="B86" s="36"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="34"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="34"/>
+      <c r="B88" s="36"/>
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="34"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -3050,29 +3054,198 @@
       <c r="H89" s="19"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="34"/>
+      <c r="B90" s="36"/>
       <c r="G90" s="28"/>
       <c r="H90" s="28"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="34"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="34"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G28:N28"/>
+  <mergeCells count="36">
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G78:H79"/>
     <mergeCell ref="G90:H90"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="D78:D79"/>
@@ -3088,18 +3261,14 @@
     <mergeCell ref="B66:C67"/>
     <mergeCell ref="B53:C54"/>
     <mergeCell ref="B80:B91"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G78:H79"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G28:N28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A8CF1-4A98-4787-9788-CA4B5DF013FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0254BB-9959-460A-9209-14CF649F46DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="139">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成地雷，需要准备。随后对遇到的第一个敌人造成高额爆炸伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,10 +500,6 @@
   </si>
   <si>
     <t>0-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成兔兔伯爵，经过短暂时间后爆炸，对范围内敌人造成高额爆炸伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,12 +563,102 @@
     <t>图层顺序一览表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>HydroAbyssMage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7142s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生成兔兔伯爵，经过短暂时间后爆炸，对范围内敌人造成高额</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爆炸伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生成阳华，需要准备。随后对遇到的第一个敌人造成高额</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爆炸伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>护盾存在时，本体受到的伤害-90%；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爆炸伤害能破除护盾，护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不会恢复；                                          护盾不具备生命值，本体直接扣生命值；不攻击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜酱胡萝卜煎肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投喂给派蒙，使派蒙体重增长100g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +741,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -719,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -802,6 +917,21 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,23 +944,26 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1149,21 +1282,21 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+        <v>65</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1198,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>7</v>
@@ -1210,13 +1343,13 @@
         <v>11</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>18</v>
@@ -1227,7 +1360,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1236,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="9">
         <v>100</v>
@@ -1266,28 +1399,28 @@
         <v>9</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
@@ -1296,7 +1429,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="9">
         <v>50</v>
@@ -1330,24 +1463,24 @@
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
@@ -1365,7 +1498,7 @@
         <v>1000</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -1374,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>10</v>
@@ -1389,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="T6" s="26" t="s">
-        <v>124</v>
+      <c r="T6" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="9">
         <v>4</v>
@@ -1416,7 +1549,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="E7" s="9">
         <v>25</v>
@@ -1425,13 +1558,13 @@
         <v>150</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9">
         <v>600</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="9">
         <v>20</v>
@@ -1446,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="9" t="s">
@@ -1455,49 +1588,49 @@
       <c r="Q7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="T7" s="26" t="s">
-        <v>126</v>
+      <c r="R7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="9">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E8" s="9">
         <v>150</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="9">
         <v>600</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="9">
         <v>1</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="9">
         <v>20</v>
@@ -1506,32 +1639,34 @@
         <v>8</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O8" s="27"/>
-      <c r="Q8" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="T8" s="26" t="s">
-        <v>129</v>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="35"/>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+        <v>65</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1569,27 +1704,27 @@
         <v>7</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="6">
         <v>60</v>
@@ -1601,42 +1736,42 @@
         <v>15</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="7">
         <v>1.5</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O12" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="15">
         <v>2</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="F13" s="16">
         <v>120</v>
@@ -1648,39 +1783,39 @@
         <v>20</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="16">
         <v>1.5</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="15">
         <v>3</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>27</v>
@@ -1695,7 +1830,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" s="15">
         <v>1</v>
@@ -1704,33 +1839,33 @@
         <v>9</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="15">
         <v>4</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="F15" s="16">
         <v>120</v>
@@ -1742,54 +1877,54 @@
         <v>20</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="16">
         <v>0.8</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="15">
         <v>5</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="F16" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>109</v>
-      </c>
       <c r="G16" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="15">
         <v>20</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" s="15">
         <v>1</v>
@@ -1798,70 +1933,114 @@
         <v>9</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="15">
         <v>6</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>113</v>
-      </c>
       <c r="F17" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="15">
         <v>20</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="15">
         <v>0.8</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="24"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="28">
+        <v>7</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="28">
+        <v>30</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="28">
+        <v>0</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="19" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="24"/>
@@ -1879,15 +2058,15 @@
       <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="36"/>
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -1900,20 +2079,20 @@
       <c r="F26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
+      <c r="G26" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D27" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="9">
         <v>8</v>
@@ -1921,37 +2100,37 @@
       <c r="F27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E28" s="9">
         <v>10</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
+        <v>114</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D29" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="9">
         <v>25</v>
@@ -1959,193 +2138,193 @@
       <c r="F29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D30" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="9">
         <v>16</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
+        <v>73</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D31" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="9">
         <v>22</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D32" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="9">
         <v>80</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
+        <v>73</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="9">
         <v>8</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="9">
         <v>-9</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
+        <v>73</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="9">
         <v>8</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" s="9">
         <v>-45</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
+        <v>73</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D37" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" s="9">
         <v>2</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="9">
         <v>10</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
+        <v>114</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N39" s="9"/>
@@ -2154,10 +2333,10 @@
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B41" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="34"/>
+      <c r="B41" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="37"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20" t="s">
@@ -2186,33 +2365,33 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="9">
         <v>1500</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" s="9">
         <v>1000</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J42" s="9">
         <v>0.5</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L42" s="9">
         <v>0.5</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
@@ -2224,25 +2403,25 @@
         <v>1000</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="19">
         <v>600</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J43" s="19">
         <v>1</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L43" s="19">
         <v>3</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
@@ -2254,25 +2433,25 @@
         <v>700</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H44" s="9">
         <v>300</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J44" s="9">
         <v>2.5</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L44" s="9">
         <v>3.5</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
@@ -2314,25 +2493,25 @@
         <v>400</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H46" s="9">
         <v>80</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J46" s="9">
         <v>5</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L46" s="9">
         <v>8</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
@@ -2344,25 +2523,25 @@
         <v>300</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47" s="19">
         <v>60</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J47" s="19">
         <v>6</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L47" s="19">
         <v>10</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
@@ -2374,25 +2553,25 @@
         <v>150</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H48" s="9">
         <v>25</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J48" s="9">
         <v>8</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L48" s="9">
         <v>15</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
@@ -2486,10 +2665,10 @@
       </c>
     </row>
     <row r="53" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B53" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="34"/>
+      <c r="B53" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="37"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20" t="s">
@@ -2518,33 +2697,33 @@
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="9">
         <v>1500</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H54" s="9">
         <v>500</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J54" s="9">
         <v>0.3</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L54" s="9">
         <v>1.5</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
@@ -2556,25 +2735,25 @@
         <v>1000</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55" s="19">
         <v>300</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J55" s="19">
         <v>0.5</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L55" s="19">
         <v>2</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
@@ -2586,25 +2765,25 @@
         <v>600</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H56" s="9">
         <v>100</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J56" s="9">
         <v>0.8</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L56" s="9">
         <v>2.5</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -2646,25 +2825,25 @@
         <v>300</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H58" s="9">
         <v>30</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J58" s="9">
         <v>1.25</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L58" s="9">
         <v>3.5</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
@@ -2676,25 +2855,25 @@
         <v>250</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59" s="19">
         <v>20</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J59" s="19">
         <v>1.5</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L59" s="19">
         <v>4</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
@@ -2706,25 +2885,25 @@
         <v>150</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H60" s="9">
         <v>15</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J60" s="9">
         <v>2</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L60" s="9">
         <v>5</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
@@ -2818,24 +2997,24 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="34"/>
+      <c r="B66" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="37"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19" t="s">
@@ -2849,7 +3028,7 @@
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="9">
@@ -2956,96 +3135,108 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="37"/>
+      <c r="D78" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" s="38"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+    </row>
+    <row r="80" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H78" s="35"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-    </row>
-    <row r="80" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
+      <c r="C80" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G80" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="43"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="36"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
     </row>
     <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="36"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
+      <c r="B82" s="32"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="36"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="36"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
+      <c r="B84" s="32"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="36"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="36"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
+      <c r="B86" s="32"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="36"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="36"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
+      <c r="B88" s="32"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="36"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -3054,24 +3245,24 @@
       <c r="H89" s="19"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="36"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
+      <c r="B90" s="32"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="36"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="34"/>
+      <c r="B93" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="37"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
@@ -3079,8 +3270,8 @@
       <c r="H93" s="19"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -3233,7 +3424,9 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D78:D79"/>
     <mergeCell ref="G31:N31"/>
     <mergeCell ref="G32:N32"/>
     <mergeCell ref="G86:H86"/>
@@ -3246,20 +3439,11 @@
     <mergeCell ref="G84:H84"/>
     <mergeCell ref="G85:H85"/>
     <mergeCell ref="G78:H79"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="B78:C79"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G38:N38"/>
     <mergeCell ref="F78:F79"/>
     <mergeCell ref="B41:C42"/>
     <mergeCell ref="B66:C67"/>
     <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B93:C94"/>
     <mergeCell ref="B80:B91"/>
     <mergeCell ref="G27:N27"/>
     <mergeCell ref="G29:N29"/>
@@ -3269,6 +3453,13 @@
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="G26:N26"/>
     <mergeCell ref="G28:N28"/>
+    <mergeCell ref="B78:C79"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G38:N38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0254BB-9959-460A-9209-14CF649F46DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B24A59-B90B-49C5-A080-22C44C590453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="146">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +610,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜酱胡萝卜煎肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投喂给派蒙，使派蒙体重增长100g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
+  <si>
+    <t>木桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被打破后召唤艾琳，清除一整排的敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>护盾存在时，本体受到的伤害-90%；</t>
     </r>
@@ -617,7 +644,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -628,7 +654,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -639,26 +664,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜜酱胡萝卜煎肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投喂给派蒙，使派蒙体重增长100g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>∞</t>
+    <t>0-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪奥娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向右发射冻冻猫猫爪，使遇到的第一个敌人减速若干秒，攻击初动2.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,16 +768,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -760,15 +778,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="2"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -834,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -918,23 +927,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,27 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1282,10 +1285,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1295,8 +1298,8 @@
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1654,151 +1657,152 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="26">
+        <v>175</v>
+      </c>
+      <c r="F9" s="26">
+        <v>100</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="26">
+        <v>20</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="26">
+        <v>3</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="26">
+        <v>4</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="27"/>
+      <c r="P9" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="C10" s="40"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>60</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="6">
         <v>15</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J13" s="7">
         <v>1.5</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N13" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="15">
-        <v>2</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16">
-        <v>120</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="16">
-        <v>20</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>26</v>
@@ -1807,92 +1811,92 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="15">
         <v>100</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="D14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="16">
+        <v>120</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="16">
         <v>20</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="15">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>45</v>
+      <c r="J14" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>66</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="B15" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="16">
-        <v>120</v>
-      </c>
-      <c r="G15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="15">
+        <v>20</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="16">
-        <v>20</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>47</v>
+      <c r="N15" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>26</v>
@@ -1901,65 +1905,65 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>68</v>
+    <row r="16" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="B16" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="15">
+        <v>97</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="16">
+        <v>120</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="16">
         <v>20</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="15">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>45</v>
+      <c r="J16" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="O16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P16" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>108</v>
@@ -1974,19 +1978,19 @@
         <v>42</v>
       </c>
       <c r="J17" s="15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>26</v>
@@ -1995,55 +1999,99 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:16" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="15">
+        <v>6</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="15">
+        <v>20</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B19" s="23">
         <v>7</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C19" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="28">
+      <c r="D19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="23">
         <v>30</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H19" s="23">
         <v>0</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L19" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="28" t="s">
+      <c r="N19" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="O18" s="28" t="s">
+      <c r="O19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="28" t="s">
+      <c r="P19" s="23" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="24"/>
@@ -2057,371 +2105,344 @@
     <row r="23" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="C25" s="41"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+    <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="9">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E28" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D29" s="9" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E29" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
+        <v>114</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D30" s="9" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E30" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
+        <v>31</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D31" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
+        <v>73</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D32" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
+        <v>76</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E33" s="9">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
+        <v>73</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E34" s="9">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
+        <v>76</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="9">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
+        <v>73</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="9">
-        <v>-45</v>
+        <v>8</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
+        <v>76</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D37" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="9">
-        <v>2</v>
+        <v>-45</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
+        <v>73</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D39" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>10</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N39" s="9"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B41" s="37" t="s">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="2:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="B42" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
       <c r="C42" s="37"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="9">
-        <v>1500</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>52</v>
+      <c r="F42" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="19">
+      <c r="F43" s="9">
+        <v>1500</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="9">
         <v>1000</v>
       </c>
-      <c r="G43" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="19">
-        <v>600</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J43" s="19">
-        <v>1</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="19">
-        <v>3</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>36</v>
+      <c r="I43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
@@ -2429,29 +2450,29 @@
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="9">
-        <v>700</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="9">
-        <v>300</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J44" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L44" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>53</v>
+      <c r="F44" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="19">
+        <v>600</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="19">
+        <v>1</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="19">
+        <v>3</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
@@ -2459,29 +2480,29 @@
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="19">
-        <v>600</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="19">
-        <v>200</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="19">
-        <v>3</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" s="19">
-        <v>4</v>
-      </c>
-      <c r="M45" s="19" t="s">
-        <v>9</v>
+      <c r="F45" s="9">
+        <v>700</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="9">
+        <v>300</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
@@ -2489,29 +2510,29 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="9">
-        <v>400</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H46" s="9">
-        <v>80</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" s="9">
-        <v>5</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L46" s="9">
-        <v>8</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>54</v>
+      <c r="F46" s="19">
+        <v>600</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="19">
+        <v>200</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="19">
+        <v>3</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="19">
+        <v>4</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
@@ -2519,29 +2540,29 @@
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="19">
-        <v>300</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="19">
-        <v>60</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" s="19">
-        <v>6</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L47" s="19">
-        <v>10</v>
-      </c>
-      <c r="M47" s="19" t="s">
-        <v>42</v>
+      <c r="F47" s="9">
+        <v>400</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="9">
+        <v>80</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" s="9">
+        <v>5</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47" s="9">
+        <v>8</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
@@ -2549,29 +2570,29 @@
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="9">
-        <v>150</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="9">
-        <v>25</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="9">
-        <v>8</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L48" s="9">
-        <v>15</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>38</v>
+      <c r="F48" s="19">
+        <v>300</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="19">
+        <v>60</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="19">
+        <v>6</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="19">
+        <v>10</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
@@ -2579,29 +2600,29 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="19">
-        <v>100</v>
-      </c>
-      <c r="G49" s="19" t="s">
+      <c r="F49" s="9">
+        <v>150</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" s="9">
+        <v>25</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" s="9">
         <v>8</v>
       </c>
-      <c r="H49" s="19">
+      <c r="K49" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="9">
         <v>15</v>
       </c>
-      <c r="I49" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="19">
-        <v>10</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="19">
-        <v>20</v>
-      </c>
-      <c r="M49" s="19" t="s">
-        <v>8</v>
+      <c r="M49" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
@@ -2609,29 +2630,29 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="9">
-        <v>50</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="9">
+      <c r="F50" s="19">
+        <v>100</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="19">
+        <v>15</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="19">
         <v>10</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" s="9">
-        <v>15</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="9">
-        <v>30</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>29</v>
+      <c r="K50" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="19">
+        <v>20</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
@@ -2639,121 +2660,121 @@
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="19">
+      <c r="F51" s="9">
+        <v>50</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="9">
+        <v>10</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="9">
+        <v>15</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="9">
         <v>30</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="M51" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19">
+        <v>30</v>
+      </c>
+      <c r="G52" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H52" s="19">
         <v>0</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I52" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J52" s="19">
         <v>20</v>
       </c>
-      <c r="K51" s="19" t="s">
+      <c r="K52" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L52" s="19">
         <v>35</v>
       </c>
-      <c r="M51" s="19" t="s">
+      <c r="M52" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B53" s="37" t="s">
+    <row r="54" spans="2:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="B54" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L53" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
       <c r="C54" s="37"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="9">
-        <v>1500</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="9">
-        <v>500</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L54" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>52</v>
+      <c r="F54" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="19">
-        <v>1000</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="19">
-        <v>300</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L55" s="19">
-        <v>2</v>
-      </c>
-      <c r="M55" s="19" t="s">
-        <v>36</v>
+      <c r="F55" s="9">
+        <v>1500</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="9">
+        <v>500</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
@@ -2761,29 +2782,29 @@
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
-      <c r="F56" s="9">
-        <v>600</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H56" s="9">
-        <v>100</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J56" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L56" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>53</v>
+      <c r="F56" s="19">
+        <v>1000</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="19">
+        <v>300</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="19">
+        <v>2</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -2791,29 +2812,29 @@
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="19">
-        <v>500</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="19">
-        <v>50</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J57" s="19">
-        <v>1</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L57" s="19">
-        <v>3</v>
-      </c>
-      <c r="M57" s="19" t="s">
-        <v>9</v>
+      <c r="F57" s="9">
+        <v>600</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="9">
+        <v>100</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
@@ -2821,29 +2842,29 @@
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="9">
-        <v>300</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" s="9">
-        <v>30</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J58" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L58" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>54</v>
+      <c r="F58" s="19">
+        <v>500</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="19">
+        <v>50</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="19">
+        <v>1</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="19">
+        <v>3</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
@@ -2851,29 +2872,29 @@
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="19">
-        <v>250</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H59" s="19">
-        <v>20</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J59" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L59" s="19">
-        <v>4</v>
-      </c>
-      <c r="M59" s="19" t="s">
-        <v>42</v>
+      <c r="F59" s="9">
+        <v>300</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" s="9">
+        <v>30</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
@@ -2881,29 +2902,29 @@
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
-      <c r="F60" s="9">
-        <v>150</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" s="9">
-        <v>15</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="9">
-        <v>2</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L60" s="9">
-        <v>5</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>38</v>
+      <c r="F60" s="19">
+        <v>250</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="19">
+        <v>20</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L60" s="19">
+        <v>4</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
@@ -2911,29 +2932,29 @@
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="19">
-        <v>120</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="19">
-        <v>10</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="19">
-        <v>3</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" s="19">
-        <v>6</v>
-      </c>
-      <c r="M61" s="19" t="s">
-        <v>8</v>
+      <c r="F61" s="9">
+        <v>150</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" s="9">
+        <v>15</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="9">
+        <v>2</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" s="9">
+        <v>5</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -2941,29 +2962,29 @@
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="9">
-        <v>90</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="9">
-        <v>5</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" s="9">
-        <v>4</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" s="9">
+      <c r="F62" s="19">
+        <v>120</v>
+      </c>
+      <c r="G62" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="9" t="s">
-        <v>29</v>
+      <c r="H62" s="19">
+        <v>10</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="19">
+        <v>3</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="19">
+        <v>6</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
@@ -2971,83 +2992,101 @@
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="19">
+      <c r="F63" s="9">
+        <v>90</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="9">
+        <v>5</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="9">
+        <v>4</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="9">
+        <v>8</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19">
         <v>60</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G64" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H64" s="19">
         <v>0</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="I64" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J64" s="19">
         <v>5</v>
       </c>
-      <c r="K63" s="19" t="s">
+      <c r="K64" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L63" s="19">
+      <c r="L64" s="19">
         <v>10</v>
       </c>
-      <c r="M63" s="19" t="s">
+      <c r="M64" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="37" t="s">
+    <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20" t="s">
+      <c r="C67" s="37"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G67" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="19" t="s">
+    <row r="68" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19" t="s">
+      <c r="E68" s="19"/>
+      <c r="F68" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G68" s="19">
         <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="9">
-        <v>480</v>
-      </c>
-      <c r="G68" s="9">
-        <v>9</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="D69" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="19">
-        <v>350</v>
-      </c>
-      <c r="G69" s="19">
-        <v>8</v>
+      <c r="F69" s="9">
+        <v>480</v>
+      </c>
+      <c r="G69" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
@@ -3055,11 +3094,11 @@
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="9">
-        <v>250</v>
-      </c>
-      <c r="G70" s="9">
-        <v>7</v>
+      <c r="F70" s="19">
+        <v>350</v>
+      </c>
+      <c r="G70" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
@@ -3068,10 +3107,10 @@
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="9">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G71" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
@@ -3079,11 +3118,11 @@
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
-      <c r="F72" s="19">
-        <v>120</v>
-      </c>
-      <c r="G72" s="19">
-        <v>5</v>
+      <c r="F72" s="9">
+        <v>180</v>
+      </c>
+      <c r="G72" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
@@ -3091,11 +3130,11 @@
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="9">
-        <v>80</v>
-      </c>
-      <c r="G73" s="9">
-        <v>4</v>
+      <c r="F73" s="19">
+        <v>120</v>
+      </c>
+      <c r="G73" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
@@ -3103,11 +3142,11 @@
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
-      <c r="F74" s="19">
-        <v>50</v>
-      </c>
-      <c r="G74" s="19">
-        <v>3</v>
+      <c r="F74" s="9">
+        <v>80</v>
+      </c>
+      <c r="G74" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
@@ -3116,10 +3155,10 @@
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G75" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
@@ -3127,150 +3166,161 @@
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="9">
+      <c r="F76" s="19">
+        <v>25</v>
+      </c>
+      <c r="G76" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="9">
         <v>10</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G77" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="37" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="37"/>
-      <c r="D78" s="41" t="s">
+      <c r="C79" s="37"/>
+      <c r="D79" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="38" t="s">
+      <c r="E79" s="19"/>
+      <c r="F79" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G78" s="38" t="s">
+      <c r="G79" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H78" s="38"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-    </row>
-    <row r="80" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="32" t="s">
+      <c r="H79" s="36"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+    </row>
+    <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C81" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="42" t="s">
+      <c r="E81" s="28"/>
+      <c r="F81" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G81" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G80" s="43" t="s">
+      <c r="H81" s="33"/>
+    </row>
+    <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="38"/>
+      <c r="C82" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H80" s="43"/>
-    </row>
-    <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="32"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-    </row>
-    <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="32"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
+      <c r="D82" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G82" s="34">
+        <v>1</v>
+      </c>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="32"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
+      <c r="B83" s="38"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="32"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="32"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
+      <c r="B85" s="38"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="32"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="32"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
+      <c r="B87" s="38"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="32"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="32"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
+      <c r="B89" s="38"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="32"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="32"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="37" t="s">
+      <c r="B90" s="38"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+    </row>
+    <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="38"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" s="38"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C93" s="37"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="37"/>
       <c r="C94" s="37"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
@@ -3279,8 +3329,8 @@
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
@@ -3422,44 +3472,53 @@
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
     </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B81:B92"/>
+    <mergeCell ref="B79:C80"/>
     <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D79:D80"/>
     <mergeCell ref="G32:N32"/>
-    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G89:H89"/>
     <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G80:H80"/>
     <mergeCell ref="G81:H81"/>
     <mergeCell ref="G82:H82"/>
     <mergeCell ref="G83:H83"/>
     <mergeCell ref="G84:H84"/>
     <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G78:H79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="B66:C67"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B93:C94"/>
-    <mergeCell ref="B80:B91"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="B78:C79"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G79:H80"/>
+    <mergeCell ref="F79:F80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B24A59-B90B-49C5-A080-22C44C590453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964382E5-7590-4D95-B0F7-4078E7E9B32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,6 +935,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,21 +966,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1285,10 +1285,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1298,8 +1298,8 @@
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1706,18 +1706,18 @@
       </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="32"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -2109,15 +2109,15 @@
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="33"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2384,10 +2384,10 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="37"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20" t="s">
@@ -2416,8 +2416,8 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="9">
@@ -2716,10 +2716,10 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="37"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20" t="s">
@@ -2748,8 +2748,8 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="9">
@@ -3048,10 +3048,10 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="37"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20" t="s">
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="19" t="s">
         <v>56</v>
       </c>
@@ -3186,33 +3186,33 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="32" t="s">
+      <c r="C79" s="34"/>
+      <c r="D79" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="19"/>
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="36" t="s">
+      <c r="G79" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="41"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="32"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="37"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="35" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -3225,13 +3225,13 @@
       <c r="F81" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="H81" s="33"/>
+      <c r="H81" s="38"/>
     </row>
     <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="38"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="29" t="s">
         <v>138</v>
       </c>
@@ -3242,60 +3242,60 @@
       <c r="F82" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="G82" s="34">
+      <c r="G82" s="39">
         <v>1</v>
       </c>
-      <c r="H82" s="34"/>
+      <c r="H82" s="39"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="38"/>
+      <c r="B83" s="35"/>
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="38"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="38"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
+      <c r="B85" s="35"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="38"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="38"/>
+      <c r="B87" s="35"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="38"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="38"/>
+      <c r="B89" s="35"/>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="38"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -3304,24 +3304,24 @@
       <c r="H90" s="19"/>
     </row>
     <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="38"/>
+      <c r="B91" s="35"/>
       <c r="G91" s="30"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="38"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="37"/>
+      <c r="C94" s="34"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -3329,8 +3329,8 @@
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
@@ -3483,26 +3483,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B81:B92"/>
-    <mergeCell ref="B79:C80"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="G92:H92"/>
     <mergeCell ref="D79:D80"/>
@@ -3519,6 +3499,26 @@
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="G79:H80"/>
     <mergeCell ref="F79:F80"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B81:B92"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G35:N35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964382E5-7590-4D95-B0F7-4078E7E9B32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9686FD1F-C824-40DE-9832-B45AB1619483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4270" yWindow="1360" windowWidth="12200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -935,6 +935,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,30 +966,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -1285,10 +1285,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1298,8 +1298,8 @@
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1706,18 +1706,18 @@
       </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="40"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -2109,15 +2109,15 @@
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="41"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2384,10 +2384,10 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="34"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20" t="s">
@@ -2416,8 +2416,8 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="9">
@@ -2716,10 +2716,10 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="34"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20" t="s">
@@ -2748,8 +2748,8 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="9">
@@ -3048,10 +3048,10 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="34"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20" t="s">
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="19" t="s">
         <v>56</v>
       </c>
@@ -3186,33 +3186,33 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="37" t="s">
+      <c r="C79" s="37"/>
+      <c r="D79" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="19"/>
-      <c r="F79" s="41" t="s">
+      <c r="F79" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="41" t="s">
+      <c r="G79" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H79" s="41"/>
+      <c r="H79" s="36"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -3225,13 +3225,13 @@
       <c r="F81" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="H81" s="38"/>
+      <c r="H81" s="33"/>
     </row>
     <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="35"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="29" t="s">
         <v>138</v>
       </c>
@@ -3242,60 +3242,60 @@
       <c r="F82" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="G82" s="39">
+      <c r="G82" s="34">
         <v>1</v>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="35"/>
+      <c r="B83" s="38"/>
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="35"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="35"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
+      <c r="B85" s="38"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="35"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="35"/>
+      <c r="B87" s="38"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="35"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="35"/>
+      <c r="B89" s="38"/>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="35"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -3304,24 +3304,24 @@
       <c r="H90" s="19"/>
     </row>
     <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="35"/>
+      <c r="B91" s="38"/>
       <c r="G91" s="30"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="35"/>
+      <c r="B92" s="38"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="34"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -3329,8 +3329,8 @@
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
@@ -3483,6 +3483,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B81:B92"/>
+    <mergeCell ref="B79:C80"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="G92:H92"/>
     <mergeCell ref="D79:D80"/>
@@ -3499,26 +3519,6 @@
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="G79:H80"/>
     <mergeCell ref="F79:F80"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B81:B92"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G35:N35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9686FD1F-C824-40DE-9832-B45AB1619483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DC231C-9EDC-4D34-BB1D-0113E2B0AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4270" yWindow="1360" windowWidth="12200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4270" yWindow="1360" windowWidth="12200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="146">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,23 +578,6 @@
   <si>
     <r>
       <t>生成兔兔伯爵，经过短暂时间后爆炸，对范围内敌人造成高额</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>爆炸伤害</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>生成阳华，需要准备。随后对遇到的第一个敌人造成高额</t>
     </r>
     <r>
       <rPr>
@@ -677,6 +660,23 @@
   </si>
   <si>
     <t>待填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生成阳华，需要准备。随后对遇到的第一个敌人造成高额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火元素伤害</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,6 +935,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,21 +966,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1285,10 +1285,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1298,8 +1298,8 @@
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1552,7 +1552,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E7" s="9">
         <v>25</v>
@@ -1617,10 +1617,10 @@
       <c r="E8" s="9">
         <v>150</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="26">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="9">
@@ -1657,67 +1657,67 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="26">
-        <v>6</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="9">
+        <v>175</v>
+      </c>
+      <c r="F9" s="9">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="9">
+        <v>3</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="9">
+        <v>4</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="26">
-        <v>175</v>
-      </c>
-      <c r="F9" s="26">
-        <v>100</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="26">
-        <v>20</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="26">
-        <v>3</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="26">
-        <v>4</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="26" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="32"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -2057,7 +2057,7 @@
         <v>129</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="23">
         <v>30</v>
@@ -2109,15 +2109,15 @@
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="33"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2384,10 +2384,10 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="37"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20" t="s">
@@ -2416,8 +2416,8 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="9">
@@ -2716,10 +2716,10 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="37"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20" t="s">
@@ -2748,8 +2748,8 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="9">
@@ -3048,10 +3048,10 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="37"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20" t="s">
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="19" t="s">
         <v>56</v>
       </c>
@@ -3186,116 +3186,116 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="32" t="s">
+      <c r="C79" s="34"/>
+      <c r="D79" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="19"/>
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="36" t="s">
+      <c r="G79" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="41"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="32"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="37"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="35" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="28" t="s">
         <v>135</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>136</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G81" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="38"/>
+    </row>
+    <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="35"/>
+      <c r="C82" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H81" s="33"/>
-    </row>
-    <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="38"/>
-      <c r="C82" s="29" t="s">
+      <c r="D82" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>139</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G82" s="34">
+        <v>139</v>
+      </c>
+      <c r="G82" s="39">
         <v>1</v>
       </c>
-      <c r="H82" s="34"/>
+      <c r="H82" s="39"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="38"/>
+      <c r="B83" s="35"/>
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="38"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="38"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
+      <c r="B85" s="35"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="38"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="38"/>
+      <c r="B87" s="35"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="38"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="38"/>
+      <c r="B89" s="35"/>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="38"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -3304,24 +3304,24 @@
       <c r="H90" s="19"/>
     </row>
     <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="38"/>
+      <c r="B91" s="35"/>
       <c r="G91" s="30"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="38"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="37"/>
+      <c r="C94" s="34"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -3329,8 +3329,8 @@
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
@@ -3483,26 +3483,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B81:B92"/>
-    <mergeCell ref="B79:C80"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="G92:H92"/>
     <mergeCell ref="D79:D80"/>
@@ -3519,6 +3499,26 @@
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="G79:H80"/>
     <mergeCell ref="F79:F80"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B81:B92"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G35:N35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DC231C-9EDC-4D34-BB1D-0113E2B0AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A1A57-4C2B-481D-A389-E649CEBACE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4270" yWindow="1360" windowWidth="12200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -935,6 +935,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,30 +966,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1285,10 +1285,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1298,8 +1298,8 @@
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>4</v>
@@ -1426,7 +1426,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
@@ -1486,7 +1486,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>33</v>
@@ -1546,7 +1546,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>35</v>
@@ -1606,7 +1606,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>125</v>
@@ -1662,7 +1662,7 @@
         <v>141</v>
       </c>
       <c r="B9" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>142</v>
@@ -1706,18 +1706,18 @@
       </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="40"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1769,7 +1769,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>95</v>
@@ -1816,7 +1816,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>100</v>
@@ -1863,7 +1863,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>96</v>
@@ -1910,7 +1910,7 @@
         <v>66</v>
       </c>
       <c r="B16" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>97</v>
@@ -1957,7 +1957,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>106</v>
@@ -2004,7 +2004,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>111</v>
@@ -2051,7 +2051,7 @@
         <v>69</v>
       </c>
       <c r="B19" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>129</v>
@@ -2109,15 +2109,15 @@
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="41"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2384,10 +2384,10 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="34"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20" t="s">
@@ -2416,8 +2416,8 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="9">
@@ -2716,10 +2716,10 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="34"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20" t="s">
@@ -2748,8 +2748,8 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="9">
@@ -3048,10 +3048,10 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="34"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20" t="s">
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="19" t="s">
         <v>56</v>
       </c>
@@ -3186,33 +3186,33 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="37" t="s">
+      <c r="C79" s="37"/>
+      <c r="D79" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="19"/>
-      <c r="F79" s="41" t="s">
+      <c r="F79" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="41" t="s">
+      <c r="G79" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H79" s="41"/>
+      <c r="H79" s="36"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -3225,13 +3225,13 @@
       <c r="F81" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="H81" s="38"/>
+      <c r="H81" s="33"/>
     </row>
     <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="35"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="29" t="s">
         <v>137</v>
       </c>
@@ -3242,60 +3242,60 @@
       <c r="F82" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G82" s="39">
+      <c r="G82" s="34">
         <v>1</v>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="35"/>
+      <c r="B83" s="38"/>
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="35"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="35"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
+      <c r="B85" s="38"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="35"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="35"/>
+      <c r="B87" s="38"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="35"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="35"/>
+      <c r="B89" s="38"/>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="35"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -3304,24 +3304,24 @@
       <c r="H90" s="19"/>
     </row>
     <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="35"/>
+      <c r="B91" s="38"/>
       <c r="G91" s="30"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="35"/>
+      <c r="B92" s="38"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="34"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -3329,8 +3329,8 @@
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
@@ -3483,6 +3483,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B81:B92"/>
+    <mergeCell ref="B79:C80"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="G92:H92"/>
     <mergeCell ref="D79:D80"/>
@@ -3499,26 +3519,6 @@
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="G79:H80"/>
     <mergeCell ref="F79:F80"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B81:B92"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G35:N35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A1A57-4C2B-481D-A389-E649CEBACE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581CCA53-5317-4FF3-A1B0-2A78856666B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="148">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,14 @@
       </rPr>
       <t>火元素伤害</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩充编队·1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编队可携带角色数上限+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -929,12 +937,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,29 +964,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84:H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1285,10 +1290,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1298,8 +1303,8 @@
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1706,18 +1711,18 @@
       </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="31"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -2109,15 +2114,15 @@
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="32"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2130,16 +2135,16 @@
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -2151,14 +2156,14 @@
       <c r="F28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D29" s="9" t="s">
@@ -2170,14 +2175,14 @@
       <c r="F29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D30" s="9" t="s">
@@ -2189,14 +2194,14 @@
       <c r="F30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D31" s="9" t="s">
@@ -2208,16 +2213,16 @@
       <c r="F31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D32" s="9" t="s">
@@ -2229,14 +2234,14 @@
       <c r="F32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
@@ -2248,16 +2253,16 @@
       <c r="F33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
@@ -2269,14 +2274,14 @@
       <c r="F34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
@@ -2288,16 +2293,16 @@
       <c r="F35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
@@ -2309,14 +2314,14 @@
       <c r="F36" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D37" s="9" t="s">
@@ -2328,16 +2333,16 @@
       <c r="F37" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
@@ -2349,14 +2354,14 @@
       <c r="F38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D39" s="9" t="s">
@@ -2368,14 +2373,14 @@
       <c r="F39" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N40" s="9"/>
@@ -2384,10 +2389,10 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="37"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20" t="s">
@@ -2416,8 +2421,8 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="9">
@@ -2716,10 +2721,10 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="37"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20" t="s">
@@ -2748,8 +2753,8 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="9">
@@ -3048,10 +3053,10 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="37"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20" t="s">
@@ -3062,8 +3067,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="19" t="s">
         <v>56</v>
       </c>
@@ -3186,33 +3191,33 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="32" t="s">
+      <c r="C79" s="33"/>
+      <c r="D79" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="19"/>
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="36" t="s">
+      <c r="G79" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="39"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="32"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="36"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -3225,77 +3230,89 @@
       <c r="F81" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="H81" s="33"/>
+      <c r="H81" s="37"/>
     </row>
     <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="38"/>
-      <c r="C82" s="29" t="s">
+      <c r="B82" s="34"/>
+      <c r="C82" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29" t="s">
+      <c r="E82" s="19"/>
+      <c r="F82" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G82" s="34">
+      <c r="G82" s="35">
         <v>1</v>
       </c>
-      <c r="H82" s="34"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="38"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83" s="40">
+        <v>1</v>
+      </c>
+      <c r="H83" s="40"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="38"/>
+      <c r="B84" s="34"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="38"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
+      <c r="B85" s="34"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="38"/>
+      <c r="B86" s="34"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="38"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
+      <c r="B87" s="34"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="38"/>
+      <c r="B88" s="34"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="38"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
+      <c r="B89" s="34"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="38"/>
+      <c r="B90" s="34"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -3304,24 +3321,24 @@
       <c r="H90" s="19"/>
     </row>
     <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="38"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
+      <c r="B91" s="34"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="38"/>
+      <c r="B92" s="34"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="37"/>
+      <c r="C94" s="33"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -3329,8 +3346,8 @@
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
@@ -3483,26 +3500,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B81:B92"/>
-    <mergeCell ref="B79:C80"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="G92:H92"/>
     <mergeCell ref="D79:D80"/>
@@ -3519,6 +3516,26 @@
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="G79:H80"/>
     <mergeCell ref="F79:F80"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B81:B92"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G35:N35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581CCA53-5317-4FF3-A1B0-2A78856666B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0994C4F-C232-44C1-ABB4-A1DB8A9D921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,23 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>生成兔兔伯爵，经过短暂时间后爆炸，对范围内敌人造成高额</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>爆炸伤害</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,6 +668,23 @@
   </si>
   <si>
     <t>编队可携带角色数上限+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生成兔兔伯爵，经过短暂时间后爆炸，对范围内敌人造成高额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火元素伤害</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,6 +940,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,30 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84:H84"/>
+    <sheetView tabSelected="1" topLeftCell="B89" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1290,10 +1290,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1303,8 +1303,8 @@
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1557,7 +1557,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="9">
         <v>25</v>
@@ -1617,7 +1617,7 @@
         <v>125</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E8" s="9">
         <v>150</v>
@@ -1664,16 +1664,16 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="9">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="E9" s="9">
         <v>175</v>
@@ -1707,22 +1707,22 @@
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="39"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -2062,7 +2062,7 @@
         <v>129</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="23">
         <v>30</v>
@@ -2114,15 +2114,15 @@
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="40"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2389,10 +2389,10 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="33"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20" t="s">
@@ -2421,8 +2421,8 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="9">
@@ -2721,10 +2721,10 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="33"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20" t="s">
@@ -2753,8 +2753,8 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="9">
@@ -3053,10 +3053,10 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="33"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20" t="s">
@@ -3067,8 +3067,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
       <c r="D68" s="19" t="s">
         <v>56</v>
       </c>
@@ -3191,128 +3191,128 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="36" t="s">
+      <c r="C79" s="36"/>
+      <c r="D79" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="19"/>
-      <c r="F79" s="39" t="s">
+      <c r="F79" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="39" t="s">
+      <c r="G79" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H79" s="39"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="31"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="37" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" s="28" t="s">
         <v>134</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>135</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H81" s="32"/>
+    </row>
+    <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="37"/>
+      <c r="C82" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H81" s="37"/>
-    </row>
-    <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="34"/>
-      <c r="C82" s="19" t="s">
+      <c r="D82" s="19" t="s">
         <v>137</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>138</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G82" s="35">
+        <v>138</v>
+      </c>
+      <c r="G82" s="30">
         <v>1</v>
       </c>
-      <c r="H82" s="35"/>
+      <c r="H82" s="30"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="34"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G83" s="40">
+        <v>138</v>
+      </c>
+      <c r="G83" s="33">
         <v>1</v>
       </c>
-      <c r="H83" s="40"/>
+      <c r="H83" s="33"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="34"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="34"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
+      <c r="B85" s="37"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="34"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="34"/>
+      <c r="B87" s="37"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="34"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="34"/>
+      <c r="B89" s="37"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="34"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -3321,24 +3321,24 @@
       <c r="H90" s="19"/>
     </row>
     <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="34"/>
+      <c r="B91" s="37"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="34"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="33"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -3346,8 +3346,8 @@
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
@@ -3500,6 +3500,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B81:B92"/>
+    <mergeCell ref="B79:C80"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="G92:H92"/>
     <mergeCell ref="D79:D80"/>
@@ -3516,26 +3536,6 @@
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="G79:H80"/>
     <mergeCell ref="F79:F80"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B81:B92"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G35:N35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0994C4F-C232-44C1-ABB4-A1DB8A9D921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1916CD-405F-4B6C-A239-7E102C6726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,23 +646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>生成阳华，需要准备。随后对遇到的第一个敌人造成高额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>火元素伤害</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扩充编队·1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,20 +654,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>生成兔兔伯爵，经过短暂时间后爆炸，对范围内敌人造成高额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>火元素伤害</t>
-    </r>
+    <t>生成阳华，需要准备。随后对遇到的第一个敌人造成高额火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成兔兔伯爵，经过短暂时间后爆炸，对范围内敌人造成高额火元素伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,6 +765,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -851,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -931,15 +913,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,20 +952,14 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B89" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:C95"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1290,10 +1278,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1303,8 +1291,8 @@
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1557,7 +1545,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E7" s="9">
         <v>25</v>
@@ -1606,7 +1594,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>116</v>
       </c>
@@ -1622,10 +1610,10 @@
       <c r="E8" s="9">
         <v>150</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="9">
         <v>10000</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="9">
@@ -1649,15 +1637,13 @@
       <c r="N8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="9"/>
+      <c r="O8" s="10"/>
       <c r="Q8" s="9" t="s">
         <v>126</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="S8" s="9"/>
       <c r="T8" s="9" t="s">
         <v>127</v>
       </c>
@@ -1711,18 +1697,18 @@
       </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="30"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1770,7 +1756,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="26" t="s">
         <v>66</v>
       </c>
       <c r="B13" s="6">
@@ -1817,7 +1803,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="15">
@@ -1864,8 +1850,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>67</v>
+      <c r="A15" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
@@ -1911,8 +1897,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>66</v>
+      <c r="A16" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="15">
         <v>3</v>
@@ -1958,8 +1944,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>68</v>
+      <c r="A17" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="15">
         <v>4</v>
@@ -2005,8 +1991,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>68</v>
+      <c r="A18" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="B18" s="15">
         <v>5</v>
@@ -2052,8 +2038,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>69</v>
+      <c r="A19" s="42" t="s">
+        <v>140</v>
       </c>
       <c r="B19" s="23">
         <v>6</v>
@@ -2114,15 +2100,15 @@
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="40"/>
+      <c r="C25" s="31"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2135,16 +2121,16 @@
       <c r="F27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
@@ -2156,14 +2142,14 @@
       <c r="F28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D29" s="9" t="s">
@@ -2175,14 +2161,14 @@
       <c r="F29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D30" s="9" t="s">
@@ -2194,14 +2180,14 @@
       <c r="F30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D31" s="9" t="s">
@@ -2213,16 +2199,16 @@
       <c r="F31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D32" s="9" t="s">
@@ -2234,14 +2220,14 @@
       <c r="F32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
@@ -2253,16 +2239,16 @@
       <c r="F33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
@@ -2274,14 +2260,14 @@
       <c r="F34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
@@ -2293,16 +2279,16 @@
       <c r="F35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
@@ -2314,14 +2300,14 @@
       <c r="F36" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D37" s="9" t="s">
@@ -2333,16 +2319,16 @@
       <c r="F37" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
@@ -2354,14 +2340,14 @@
       <c r="F38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D39" s="9" t="s">
@@ -2373,14 +2359,14 @@
       <c r="F39" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N40" s="9"/>
@@ -2389,10 +2375,10 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20" t="s">
@@ -2421,8 +2407,8 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="9">
@@ -2721,10 +2707,10 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20" t="s">
@@ -2753,8 +2739,8 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="9">
@@ -3053,10 +3039,10 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="36"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20" t="s">
@@ -3067,8 +3053,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
       <c r="D68" s="19" t="s">
         <v>56</v>
       </c>
@@ -3191,52 +3177,52 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="31" t="s">
+      <c r="C79" s="32"/>
+      <c r="D79" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="19"/>
-      <c r="F79" s="35" t="s">
+      <c r="F79" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="35" t="s">
+      <c r="G79" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="H79" s="35"/>
+      <c r="H79" s="39"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="31"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
     </row>
     <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="37" t="s">
+      <c r="B81" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28" t="s">
+      <c r="E81" s="27"/>
+      <c r="F81" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="32" t="s">
+      <c r="G81" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="H81" s="32"/>
+      <c r="H81" s="36"/>
     </row>
     <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="37"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="19" t="s">
         <v>136</v>
       </c>
@@ -3247,72 +3233,72 @@
       <c r="F82" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G82" s="30">
+      <c r="G82" s="34">
         <v>1</v>
       </c>
-      <c r="H82" s="30"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="37"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>146</v>
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="G83" s="33">
+      <c r="G83" s="37">
         <v>1</v>
       </c>
-      <c r="H83" s="33"/>
+      <c r="H83" s="37"/>
     </row>
     <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="37"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="37"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
+      <c r="B85" s="33"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="37"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="37"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
+      <c r="B87" s="33"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="37"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="37"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
+      <c r="B89" s="33"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="37"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -3321,24 +3307,24 @@
       <c r="H90" s="19"/>
     </row>
     <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="37"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
+      <c r="B91" s="33"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="37"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="36"/>
+      <c r="C94" s="32"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -3346,8 +3332,8 @@
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
@@ -3500,26 +3486,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B81:B92"/>
-    <mergeCell ref="B79:C80"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="G92:H92"/>
     <mergeCell ref="D79:D80"/>
@@ -3536,6 +3502,26 @@
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="G79:H80"/>
     <mergeCell ref="F79:F80"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B81:B92"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G35:N35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1916CD-405F-4B6C-A239-7E102C6726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF970771-4C65-47C3-9ABB-82DEA357F3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="152">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,17 +212,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2s/次，0.8/次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.7142s</t>
   </si>
   <si>
-    <t>0.28/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一个怪能不能掉一大一小2个摩拉？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商店价格一览表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,10 +419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.4/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FengSlime+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2s/次，1/次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.2s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,10 +452,6 @@
   </si>
   <si>
     <t>50%：面具破损</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾50%：木盾破损    本体50%：面具破损</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,12 +637,65 @@
     <t>生成兔兔伯爵，经过短暂时间后爆炸，对范围内敌人造成高额火元素伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>盾50%/20%：木盾破损    本体50%：面具破损</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度（走1格用时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害计算公式（暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(我)攻击力*(1+(敌)护盾(%)+(敌)脆弱(%))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1格长度为1.6单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s/次，0.8单位/次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s/次，1单位/次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28单位/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4单位/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一个怪能不能掉一大一小2个摩拉？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>答案是不能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,8 +802,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,8 +848,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -820,20 +863,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -898,27 +932,54 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,38 +989,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1278,21 +1318,21 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1327,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>7</v>
@@ -1339,13 +1379,13 @@
         <v>11</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>18</v>
@@ -1356,7 +1396,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -1365,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E4" s="9">
         <v>100</v>
@@ -1399,24 +1439,24 @@
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -1425,7 +1465,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E5" s="9">
         <v>50</v>
@@ -1459,24 +1499,24 @@
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -1525,18 +1565,18 @@
         <v>16</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="9">
         <v>3</v>
@@ -1545,7 +1585,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E7" s="9">
         <v>25</v>
@@ -1585,27 +1625,27 @@
         <v>16</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E8" s="9">
         <v>150</v>
@@ -1614,7 +1654,7 @@
         <v>10000</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="9">
         <v>600</v>
@@ -1635,31 +1675,31 @@
         <v>8</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O8" s="10"/>
       <c r="Q8" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B9" s="9">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E9" s="9">
         <v>175</v>
@@ -1693,22 +1733,25 @@
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="39"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="L11" s="44" t="s">
+        <v>146</v>
+      </c>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1752,18 +1795,18 @@
         <v>13</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>66</v>
+      <c r="A13" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>41</v>
@@ -1787,33 +1830,33 @@
         <v>42</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>42</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
-        <v>67</v>
+      <c r="A14" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F14" s="16">
         <v>120</v>
@@ -1834,30 +1877,30 @@
         <v>42</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>68</v>
+      <c r="A15" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>27</v>
@@ -1881,33 +1924,33 @@
         <v>9</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
-        <v>69</v>
+      <c r="A16" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="B16" s="15">
         <v>3</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="16">
         <v>120</v>
@@ -1925,42 +1968,42 @@
         <v>0.8</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>42</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
-        <v>69</v>
+      <c r="A17" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="B17" s="15">
         <v>4</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="15">
         <v>20</v>
@@ -1975,39 +2018,39 @@
         <v>9</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
-        <v>116</v>
       </c>
       <c r="B18" s="15">
         <v>5</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="15">
         <v>20</v>
@@ -2019,541 +2062,430 @@
         <v>0.8</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>42</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="23">
+      <c r="P18" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="22">
         <v>6</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="23">
+        <v>133</v>
+      </c>
+      <c r="F19" s="22">
         <v>30</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>0</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="23" t="s">
+      <c r="L19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="O19" s="23" t="s">
+      <c r="N19" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="24"/>
-    </row>
-    <row r="23" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="1:16" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="24"/>
+      <c r="P19" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="1:16" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="40"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="9">
-        <v>8</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D29" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="9">
-        <v>10</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D30" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="9">
-        <v>25</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
+    <row r="27" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="N27" s="43"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D31" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="9">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D32" s="9" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E32" s="9">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E33" s="9">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
+        <v>108</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E34" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E35" s="9">
-        <v>-9</v>
+        <v>16</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E36" s="9">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D37" s="9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E37" s="9">
-        <v>-45</v>
+        <v>80</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E38" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D39" s="9" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E39" s="9">
+        <v>-9</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D40" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="9">
+        <v>8</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="9">
+        <v>-45</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="9">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D43" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="9">
         <v>10</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F43" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="2:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="B46" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B42" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="9">
-        <v>1500</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L43" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19">
-        <v>1000</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="19">
-        <v>600</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="19">
-        <v>1</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="19">
-        <v>3</v>
-      </c>
-      <c r="M44" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="9">
-        <v>700</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="9">
-        <v>300</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L45" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="19">
-        <v>600</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="19">
-        <v>200</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" s="19">
-        <v>3</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="19">
-        <v>4</v>
-      </c>
-      <c r="M46" s="19" t="s">
-        <v>9</v>
+      <c r="F46" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="9">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H47" s="9">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J47" s="9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L47" s="9">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
@@ -2562,28 +2494,28 @@
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H48" s="19">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J48" s="19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L48" s="19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
@@ -2592,28 +2524,28 @@
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="9">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H49" s="9">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J49" s="9">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L49" s="9">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
@@ -2622,28 +2554,28 @@
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H50" s="19">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J50" s="19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L50" s="19">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M50" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
@@ -2652,28 +2584,28 @@
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="9">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H51" s="9">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="J51" s="9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="L51" s="9">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
@@ -2682,90 +2614,118 @@
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="19">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G52" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="19">
+        <v>60</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="19">
+        <v>6</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52" s="19">
         <v>10</v>
       </c>
-      <c r="H52" s="19">
-        <v>0</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="19">
-        <v>20</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="19">
-        <v>35</v>
-      </c>
       <c r="M52" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B54" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="32"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="9">
+        <v>150</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="9">
+        <v>25</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="9">
+        <v>8</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="9">
+        <v>15</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J54" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L54" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>7</v>
+      <c r="F54" s="19">
+        <v>100</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="19">
+        <v>15</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="19">
+        <v>10</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="19">
+        <v>20</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="9">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H55" s="9">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="J55" s="9">
-        <v>0.3</v>
+        <v>15</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="L55" s="9">
-        <v>1.5</v>
+        <v>30</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
@@ -2774,118 +2734,90 @@
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="H56" s="19">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="J56" s="19">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L56" s="19">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="9">
-        <v>600</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H57" s="9">
-        <v>100</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J57" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L57" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="B58" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="36"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="19">
-        <v>500</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="19">
-        <v>50</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" s="19">
-        <v>1</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L58" s="19">
-        <v>3</v>
-      </c>
-      <c r="M58" s="19" t="s">
-        <v>9</v>
+      <c r="F58" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="M58" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="9">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H59" s="9">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J59" s="9">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L59" s="9">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
@@ -2894,28 +2826,28 @@
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H60" s="19">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J60" s="19">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L60" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
@@ -2924,28 +2856,28 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="9">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H61" s="9">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J61" s="9">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L61" s="9">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -2954,28 +2886,28 @@
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H62" s="19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J62" s="19">
+        <v>1</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" s="19">
         <v>3</v>
       </c>
-      <c r="K62" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="19">
-        <v>6</v>
-      </c>
       <c r="M62" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
@@ -2984,28 +2916,28 @@
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="9">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H63" s="9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="J63" s="9">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="L63" s="9">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
@@ -3014,353 +2946,437 @@
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="G64" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="19">
+        <v>20</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L64" s="19">
+        <v>4</v>
+      </c>
+      <c r="M64" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="9">
+        <v>150</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="9">
+        <v>15</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J65" s="9">
+        <v>2</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65" s="9">
+        <v>5</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19">
+        <v>120</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="19">
         <v>10</v>
       </c>
-      <c r="H64" s="19">
-        <v>0</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J64" s="19">
-        <v>5</v>
-      </c>
-      <c r="K64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64" s="19">
-        <v>10</v>
-      </c>
-      <c r="M64" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="32"/>
+      <c r="I66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="19">
+        <v>3</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="19">
+        <v>6</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
-      <c r="F67" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="19" t="s">
-        <v>56</v>
-      </c>
+      <c r="F67" s="9">
+        <v>90</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="9">
+        <v>5</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="9">
+        <v>4</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="9">
+        <v>8</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="19"/>
-      <c r="F68" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="19">
+      <c r="F68" s="19">
+        <v>60</v>
+      </c>
+      <c r="G68" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="9">
-        <v>480</v>
-      </c>
-      <c r="G69" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19">
-        <v>350</v>
-      </c>
-      <c r="G70" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
+      <c r="H68" s="19">
+        <v>0</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="19">
+        <v>5</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="19">
+        <v>10</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="36"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="9">
-        <v>250</v>
-      </c>
-      <c r="G71" s="9">
+      <c r="F71" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+    <row r="72" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="E72" s="19"/>
-      <c r="F72" s="9">
-        <v>180</v>
-      </c>
-      <c r="G72" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F72" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="D73" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="E73" s="19"/>
-      <c r="F73" s="19">
-        <v>120</v>
-      </c>
-      <c r="G73" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F73" s="9">
+        <v>480</v>
+      </c>
+      <c r="G73" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
-      <c r="F74" s="9">
-        <v>80</v>
-      </c>
-      <c r="G74" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F74" s="19">
+        <v>350</v>
+      </c>
+      <c r="G74" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="19">
-        <v>50</v>
-      </c>
-      <c r="G75" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F75" s="9">
+        <v>250</v>
+      </c>
+      <c r="G75" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="19">
-        <v>25</v>
-      </c>
-      <c r="G76" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F76" s="9">
+        <v>180</v>
+      </c>
+      <c r="G76" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="9">
+      <c r="F77" s="19">
+        <v>120</v>
+      </c>
+      <c r="G77" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="9">
+        <v>80</v>
+      </c>
+      <c r="G78" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19">
+        <v>50</v>
+      </c>
+      <c r="G79" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19">
+        <v>25</v>
+      </c>
+      <c r="G80" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="9">
         <v>10</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G81" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="32" t="s">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="19"/>
+      <c r="F83" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G83" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="19"/>
-      <c r="F79" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="H79" s="39"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-    </row>
-    <row r="81" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27" t="s">
+      <c r="H83" s="35"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+    </row>
+    <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H85" s="32"/>
+    </row>
+    <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="37"/>
+      <c r="C86" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="H81" s="36"/>
-    </row>
-    <row r="82" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="33"/>
-      <c r="C82" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19" t="s">
+      <c r="G86" s="30">
+        <v>1</v>
+      </c>
+      <c r="H86" s="30"/>
+    </row>
+    <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="37"/>
+      <c r="C87" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G82" s="34">
+      <c r="D87" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87" s="33">
         <v>1</v>
       </c>
-      <c r="H82" s="34"/>
-    </row>
-    <row r="83" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="33"/>
-      <c r="C83" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G83" s="37">
-        <v>1</v>
-      </c>
-      <c r="H83" s="37"/>
-    </row>
-    <row r="84" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="33"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-    </row>
-    <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="33"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-    </row>
-    <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="33"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-    </row>
-    <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="33"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
+      <c r="H87" s="33"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="33"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="33"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
+      <c r="B89" s="37"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="33"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="33"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="33"/>
+      <c r="B91" s="37"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+    </row>
+    <row r="92" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="37"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="32"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+    </row>
+    <row r="93" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="37"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+    </row>
+    <row r="94" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="37"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
+    <row r="95" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="37"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="19"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
+      <c r="B98" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="36"/>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
@@ -3368,8 +3384,8 @@
       <c r="H98" s="19"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
@@ -3484,44 +3500,80 @@
       <c r="G111" s="19"/>
       <c r="H111" s="19"/>
     </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="G43:N43"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G39:N39"/>
     <mergeCell ref="G32:N32"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G79:H80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B81:B92"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G35:N35"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B25:C26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="B98:C99"/>
+    <mergeCell ref="B85:B96"/>
+    <mergeCell ref="B83:C84"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="G36:N36"/>
     <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G83:H84"/>
+    <mergeCell ref="F83:F84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF970771-4C65-47C3-9ABB-82DEA357F3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDB1F63-3539-4A70-8B0E-58F36EE451F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,10 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓄力跳跃，相比于FengSlime的抵抗力更高，scale是FengSlime的150%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.2s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,10 +472,6 @@
   </si>
   <si>
     <t>0-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向右发射音符，攻击遇到的第一个敌人，攻击初动2.5s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,42 +571,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>护盾存在时，本体受到的伤害-90%；</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>爆炸伤害能破除护盾，护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不会恢复；                                          护盾不具备生命值，本体直接扣生命值；不攻击</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>迪奥娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向右发射冻冻猫猫爪，使遇到的第一个敌人减速若干秒，攻击初动2.5s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -688,6 +649,68 @@
       </rPr>
       <t>答案是不能</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>向右发射音符，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对攻击到的第一个敌人造成物理伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，攻击初动2.5s</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>向右发射冻冻猫猫爪，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对攻击到的第一个敌人造成冰元素伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，攻击初动2.5s</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不攻击；初始获得护盾；护盾存在时，本体附着水元素且受到的伤害-90%，护盾不具备生命值，本体直接扣生命值；护盾能被火元素破除且不会恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力跳跃，相比于FengSlime的抵抗力更高、行动力更强，scale是FengSlime的150%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,14 +810,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -804,6 +819,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -944,18 +967,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,32 +1021,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1318,10 +1341,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1331,8 +1354,8 @@
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1405,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="E4" s="9">
         <v>100</v>
@@ -1465,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="9">
         <v>50</v>
@@ -1565,13 +1588,13 @@
         <v>16</v>
       </c>
       <c r="R6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="T6" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -1585,7 +1608,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E7" s="9">
         <v>25</v>
@@ -1628,24 +1651,24 @@
         <v>48</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E8" s="9">
         <v>150</v>
@@ -1675,31 +1698,31 @@
         <v>8</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O8" s="10"/>
       <c r="Q8" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" s="9">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E9" s="9">
         <v>175</v>
@@ -1733,24 +1756,24 @@
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="34"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="L11" s="44" t="s">
-        <v>146</v>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="L11" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -1795,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -1830,7 +1853,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>42</v>
@@ -1842,7 +1865,7 @@
         <v>26</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -1856,7 +1879,7 @@
         <v>96</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F14" s="16">
         <v>120</v>
@@ -1877,19 +1900,19 @@
         <v>42</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>52</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.3">
@@ -1924,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>8</v>
@@ -1936,7 +1959,7 @@
         <v>26</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -1971,7 +1994,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>42</v>
@@ -1983,7 +2006,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
@@ -1994,13 +2017,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="F17" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>103</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>52</v>
@@ -2018,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>8</v>
@@ -2030,24 +2053,24 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="15">
         <v>5</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>106</v>
-      </c>
       <c r="F18" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>52</v>
@@ -2065,7 +2088,7 @@
         <v>51</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>42</v>
@@ -2077,21 +2100,21 @@
         <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B19" s="22">
         <v>6</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="F19" s="22">
         <v>30</v>
@@ -2112,19 +2135,19 @@
         <v>10</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M19" s="22" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>16</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2143,25 +2166,25 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="40"/>
+      <c r="C25" s="35"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="N27" s="43"/>
+        <v>141</v>
+      </c>
+      <c r="N27" s="30"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D31" s="9" t="s">
@@ -2173,16 +2196,16 @@
       <c r="F31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D32" s="9" t="s">
@@ -2194,33 +2217,33 @@
       <c r="F32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="9">
         <v>10</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+        <v>107</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
@@ -2232,14 +2255,14 @@
       <c r="F34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
@@ -2251,16 +2274,16 @@
       <c r="F35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
@@ -2272,14 +2295,14 @@
       <c r="F36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D37" s="9" t="s">
@@ -2291,16 +2314,16 @@
       <c r="F37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
+      <c r="G37" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
@@ -2312,14 +2335,14 @@
       <c r="F38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D39" s="9" t="s">
@@ -2331,16 +2354,16 @@
       <c r="F39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D40" s="9" t="s">
@@ -2352,14 +2375,14 @@
       <c r="F40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D41" s="9" t="s">
@@ -2371,16 +2394,16 @@
       <c r="F41" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D42" s="9" t="s">
@@ -2392,33 +2415,33 @@
       <c r="F42" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D43" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="9">
         <v>10</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
+        <v>107</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N44" s="9"/>
@@ -2428,7 +2451,7 @@
     </row>
     <row r="46" spans="2:14" ht="26" x14ac:dyDescent="0.3">
       <c r="B46" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" s="36"/>
       <c r="D46" s="19"/>
@@ -2783,8 +2806,8 @@
       <c r="K58" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L58" s="42" t="s">
-        <v>143</v>
+      <c r="L58" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="M58" s="20" t="s">
         <v>7</v>
@@ -3224,7 +3247,7 @@
       <c r="F81" s="9">
         <v>10</v>
       </c>
-      <c r="G81" s="41">
+      <c r="G81" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3233,79 +3256,79 @@
         <v>78</v>
       </c>
       <c r="C83" s="36"/>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="19"/>
-      <c r="F83" s="35" t="s">
+      <c r="F83" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="G83" s="35" t="s">
+      <c r="G83" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="H83" s="35"/>
+      <c r="H83" s="43"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
-      <c r="D84" s="31"/>
+      <c r="D84" s="39"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G85" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H85" s="32"/>
+        <v>124</v>
+      </c>
+      <c r="G85" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H85" s="40"/>
     </row>
     <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="37"/>
       <c r="C86" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86" s="30">
+        <v>130</v>
+      </c>
+      <c r="G86" s="38">
         <v>1</v>
       </c>
-      <c r="H86" s="30"/>
+      <c r="H86" s="38"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="37"/>
       <c r="C87" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G87" s="33">
+        <v>130</v>
+      </c>
+      <c r="G87" s="41">
         <v>1</v>
       </c>
-      <c r="H87" s="33"/>
+      <c r="H87" s="41"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="37"/>
@@ -3313,13 +3336,13 @@
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="37"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="37"/>
@@ -3327,13 +3350,13 @@
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
     </row>
     <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="37"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
     </row>
     <row r="92" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="37"/>
@@ -3341,13 +3364,13 @@
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
     </row>
     <row r="93" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="37"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
     </row>
     <row r="94" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="37"/>
@@ -3360,8 +3383,8 @@
     </row>
     <row r="95" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="37"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="37"/>
@@ -3369,12 +3392,12 @@
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C98" s="36"/>
       <c r="D98" s="19"/>
@@ -3538,26 +3561,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G43:N43"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="B98:C99"/>
-    <mergeCell ref="B85:B96"/>
-    <mergeCell ref="B83:C84"/>
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="D83:D84"/>
@@ -3574,6 +3577,26 @@
     <mergeCell ref="G90:H90"/>
     <mergeCell ref="G83:H84"/>
     <mergeCell ref="F83:F84"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="B98:C99"/>
+    <mergeCell ref="B85:B96"/>
+    <mergeCell ref="B83:C84"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="G43:N43"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G39:N39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Editor/图鉴.xlsx
+++ b/Assets/Editor/图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAVE\code\NEW\Teyvat-Rush\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDB1F63-3539-4A70-8B0E-58F36EE451F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697273FD-D23E-46C8-A2B6-5F79C374CCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,10 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产中星辉以部署角色，技能初动5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3*3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,6 +707,23 @@
   </si>
   <si>
     <t>蓄力跳跃，相比于FengSlime的抵抗力更高、行动力更强，scale是FengSlime的150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生产中星辉以部署角色，技能初动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12s</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,9 +998,36 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,33 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1341,10 +1354,10 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1354,8 +1367,8 @@
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
@@ -1428,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="9">
         <v>100</v>
@@ -1488,7 +1501,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E5" s="9">
         <v>50</v>
@@ -1505,11 +1518,11 @@
       <c r="I5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="9">
-        <v>15</v>
+      <c r="J5" s="24">
+        <v>20</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L5" s="9">
         <v>4</v>
@@ -1588,13 +1601,13 @@
         <v>16</v>
       </c>
       <c r="R6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -1608,7 +1621,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="9">
         <v>25</v>
@@ -1651,10 +1664,10 @@
         <v>48</v>
       </c>
       <c r="S7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -1665,10 +1678,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="9">
         <v>150</v>
@@ -1698,31 +1711,31 @@
         <v>8</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O8" s="10"/>
       <c r="Q8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="9">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="9">
         <v>175</v>
@@ -1756,24 +1769,24 @@
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="43"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="L11" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -1853,7 +1866,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>42</v>
@@ -1879,7 +1892,7 @@
         <v>96</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="16">
         <v>120</v>
@@ -1900,7 +1913,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>52</v>
@@ -1947,7 +1960,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>8</v>
@@ -1994,7 +2007,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>42</v>
@@ -2041,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>8</v>
@@ -2053,7 +2066,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="15" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
@@ -2088,7 +2101,7 @@
         <v>51</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>42</v>
@@ -2100,21 +2113,21 @@
         <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="22">
         <v>6</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>150</v>
+        <v>120</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="F19" s="22">
         <v>30</v>
@@ -2135,19 +2148,19 @@
         <v>10</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M19" s="22" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>16</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2166,23 +2179,23 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="44"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="N27" s="30"/>
     </row>
@@ -2196,16 +2209,16 @@
       <c r="F31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D32" s="9" t="s">
@@ -2217,14 +2230,14 @@
       <c r="F32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
@@ -2236,14 +2249,14 @@
       <c r="F33" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="9" t="s">
@@ -2255,14 +2268,14 @@
       <c r="F34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="9" t="s">
@@ -2274,16 +2287,16 @@
       <c r="F35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D36" s="9" t="s">
@@ -2295,14 +2308,14 @@
       <c r="F36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D37" s="9" t="s">
@@ -2314,16 +2327,16 @@
       <c r="F37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
+      <c r="G37" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D38" s="9" t="s">
@@ -2335,14 +2348,14 @@
       <c r="F38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D39" s="9" t="s">
@@ -2354,16 +2367,16 @@
       <c r="F39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D40" s="9" t="s">
@@ -2375,14 +2388,14 @@
       <c r="F40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D41" s="9" t="s">
@@ -2394,16 +2407,16 @@
       <c r="F41" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D42" s="9" t="s">
@@ -2415,14 +2428,14 @@
       <c r="F42" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D43" s="9" t="s">
@@ -2434,14 +2447,14 @@
       <c r="F43" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N44" s="9"/>
@@ -2450,10 +2463,10 @@
       <c r="N45" s="9"/>
     </row>
     <row r="46" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B46" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="36"/>
+      <c r="B46" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="40"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="20" t="s">
@@ -2482,8 +2495,8 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="9">
@@ -2782,10 +2795,10 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20" t="s">
@@ -2807,15 +2820,15 @@
         <v>7</v>
       </c>
       <c r="L58" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M58" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="9">
@@ -3114,10 +3127,10 @@
       </c>
     </row>
     <row r="71" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="36"/>
+      <c r="C71" s="40"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="20" t="s">
@@ -3128,8 +3141,8 @@
       </c>
     </row>
     <row r="72" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
       <c r="D72" s="19" t="s">
         <v>54</v>
       </c>
@@ -3252,128 +3265,128 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="39" t="s">
+      <c r="C83" s="40"/>
+      <c r="D83" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="19"/>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G83" s="43" t="s">
+      <c r="G83" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H83" s="43"/>
+      <c r="H83" s="39"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="39"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
     </row>
     <row r="85" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="41" t="s">
         <v>79</v>
       </c>
       <c r="C85" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>126</v>
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G85" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H85" s="36"/>
+    </row>
+    <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="41"/>
+      <c r="C86" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="H85" s="40"/>
-    </row>
-    <row r="86" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="37"/>
-      <c r="C86" s="19" t="s">
+      <c r="D86" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G86" s="38">
+        <v>129</v>
+      </c>
+      <c r="G86" s="34">
         <v>1</v>
       </c>
-      <c r="H86" s="38"/>
+      <c r="H86" s="34"/>
     </row>
     <row r="87" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="37"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G87" s="41">
+        <v>129</v>
+      </c>
+      <c r="G87" s="37">
         <v>1</v>
       </c>
-      <c r="H87" s="41"/>
+      <c r="H87" s="37"/>
     </row>
     <row r="88" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="37"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
     </row>
     <row r="89" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="37"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
+      <c r="B89" s="41"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
     </row>
     <row r="90" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="37"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="37"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
+      <c r="B91" s="41"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
     </row>
     <row r="92" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="37"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
     </row>
     <row r="93" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="37"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
+      <c r="B93" s="41"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
     </row>
     <row r="94" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="37"/>
+      <c r="B94" s="41"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
@@ -3382,24 +3395,24 @@
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="37"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
+      <c r="B95" s="41"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="37"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="36"/>
+      <c r="B98" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="40"/>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
@@ -3407,8 +3420,8 @@
       <c r="H98" s="19"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
@@ -3561,6 +3574,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G43:N43"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="B98:C99"/>
+    <mergeCell ref="B85:B96"/>
+    <mergeCell ref="B83:C84"/>
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="D83:D84"/>
@@ -3577,26 +3610,6 @@
     <mergeCell ref="G90:H90"/>
     <mergeCell ref="G83:H84"/>
     <mergeCell ref="F83:F84"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="B98:C99"/>
-    <mergeCell ref="B85:B96"/>
-    <mergeCell ref="B83:C84"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="G43:N43"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="G39:N39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
